--- a/20231018_大手企業の貧弱な開発環境/15_IPA.xlsx
+++ b/20231018_大手企業の貧弱な開発環境/15_IPA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20231018_大手企業の貧弱な開発環境\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18AE360-394B-4CF9-9ADE-2D4772D07889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7729E734-16CE-4E03-93EE-F7FFBC5F67FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A13CE487-B3C6-4B37-9F25-44DA106E3DDB}"/>
   </bookViews>
@@ -1703,8 +1703,8 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
